--- a/biology/Médecine/1600_en_santé_et_médecine/1600_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1600_en_santé_et_médecine/1600_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1600_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1600_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1600 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1600_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1600_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2 août : au Danemark, fondation d'un hortus medicus (« jardin des plantes médicinales ») qui est à l'origine de l'actuel jardin botanique de Copenhague[1].
-Au Canada, « estimés à trente mille en 1600, [les Hurons] (alliés des Français) [aur]ont vu leur population fondre à neuf mille au début des années 1640, essentiellement à cause de la variole[2] ».
-Edmé Brothey, rebouteux, et curé de Montillot, en Bourgogne, est accusé d'exercice illégal de la médecine[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2 août : au Danemark, fondation d'un hortus medicus (« jardin des plantes médicinales ») qui est à l'origine de l'actuel jardin botanique de Copenhague.
+Au Canada, « estimés à trente mille en 1600, [les Hurons] (alliés des Français) [aur]ont vu leur population fondre à neuf mille au début des années 1640, essentiellement à cause de la variole ».
+Edmé Brothey, rebouteux, et curé de Montillot, en Bourgogne, est accusé d'exercice illégal de la médecine.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1600_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1600_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>William Gilbert (1544-1603), médecin de la reine Élisabeth Ire puis du roi Jacques Ier, surtout connu comme astronome et physicien, publie son traité De magnete, qui ouvre la voie à l'étude du champ magnétique terrestre[4].
-André du Laurens (1558-1609) fait paraître son Historia anatomica, dont il a publié une première version en 1593 sous le titre d'Opera anatomica[5], ouvrage qui sera largement diffusé[6] et dont François Size donnera la traduction française dès 1610[7].
-1600 ou 1601 : Giulio  Cesare Casseri (c.1552-1616), professeur d'anatomie à Padoue, fait paraître chez Vittorio Baldini son essai De vocis auditusque organis historia anatomica, « sur les organes de la voix et de l'ouie[8] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>William Gilbert (1544-1603), médecin de la reine Élisabeth Ire puis du roi Jacques Ier, surtout connu comme astronome et physicien, publie son traité De magnete, qui ouvre la voie à l'étude du champ magnétique terrestre.
+André du Laurens (1558-1609) fait paraître son Historia anatomica, dont il a publié une première version en 1593 sous le titre d'Opera anatomica, ouvrage qui sera largement diffusé et dont François Size donnera la traduction française dès 1610.
+1600 ou 1601 : Giulio  Cesare Casseri (c.1552-1616), professeur d'anatomie à Padoue, fait paraître chez Vittorio Baldini son essai De vocis auditusque organis historia anatomica, « sur les organes de la voix et de l'ouie ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1600_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1600_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2 février : Gabriel Naudé (mort en 1653), médecin et polymathe français[9].
-1er septembre : Thadeus Hajek (né en 1525), astronome, mathématicien et naturaliste bohémien, médecin de Rodolphe II, empereur d'Allemagne[10].
-Denis Joncquet (mort en 1671), médecin et botaniste français[11].
-Vers 1600 : Jakob Bartsch (mort en 1633), mathématicien, astronome et médecin allemand[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Gabriel Naudé (mort en 1653), médecin et polymathe français.
+1er septembre : Thadeus Hajek (né en 1525), astronome, mathématicien et naturaliste bohémien, médecin de Rodolphe II, empereur d'Allemagne.
+Denis Joncquet (mort en 1671), médecin et botaniste français.
+Vers 1600 : Jakob Bartsch (mort en 1633), mathématicien, astronome et médecin allemand.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1600_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1600_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>21 mai : Jacob Horst (né en 1537), professeur de médecine à l'université de Helmstedt[13],[14].
-24 octobre : Andrea Bacci (né en 1524), titulaire de la chaire de lecture des simples de la faculté de médecine de l'université de Rome[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>21 mai : Jacob Horst (né en 1537), professeur de médecine à l'université de Helmstedt,.
+24 octobre : Andrea Bacci (né en 1524), titulaire de la chaire de lecture des simples de la faculté de médecine de l'université de Rome.</t>
         </is>
       </c>
     </row>
